--- a/UFW 2020 Pairing.xlsx
+++ b/UFW 2020 Pairing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericamay/Documents/Wrestling/2020 United for Wrestling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5123cf9d5ba6383/Projects/Web/Wrestling scoreboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D8675-EBA6-7C42-BD26-133DCB9EEF7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D8675-EBA6-7C42-BD26-133DCB9EEF7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="620" windowWidth="25660" windowHeight="14460" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4155" windowWidth="19440" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revolutioniseSPORT-WrestlingWes" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Medallists (New)'!$I$3:$P$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1922,21 +1931,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1967,6 +1961,18 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1976,13 +1982,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2426,16 +2435,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127" t="s">
         <v>110</v>
       </c>
@@ -2502,10 +2511,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="71"/>
     </row>
-    <row r="4" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>116</v>
       </c>
@@ -2534,10 +2543,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>118</v>
       </c>
@@ -2566,10 +2575,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>120</v>
       </c>
@@ -2598,10 +2607,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="127" t="s">
         <v>122</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="127" t="s">
         <v>254</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -2670,7 +2679,7 @@
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
     </row>
-    <row r="13" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
         <v>123</v>
       </c>
@@ -2699,10 +2708,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
         <v>124</v>
       </c>
@@ -2731,10 +2740,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75" t="s">
         <v>125</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
         <v>127</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
         <v>128</v>
       </c>
@@ -2821,13 +2830,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75" t="s">
         <v>129</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
         <v>268</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2893,7 +2902,7 @@
       <c r="H24"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
         <v>130</v>
       </c>
@@ -2922,10 +2931,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
         <v>131</v>
       </c>
@@ -2954,10 +2963,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
         <v>134</v>
       </c>
@@ -2986,7 +2995,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
         <v>135</v>
       </c>
@@ -3015,7 +3024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="75" t="s">
         <v>136</v>
       </c>
@@ -3044,7 +3053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
         <v>138</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="75" t="s">
         <v>141</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
         <v>133</v>
       </c>
@@ -3131,7 +3140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3142,7 +3151,7 @@
       <c r="H35"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="127" t="s">
         <v>142</v>
       </c>
@@ -3171,7 +3180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="70"/>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
@@ -3182,7 +3191,7 @@
       <c r="H37" s="70"/>
       <c r="I37" s="70"/>
     </row>
-    <row r="38" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="75" t="s">
         <v>144</v>
       </c>
@@ -3211,10 +3220,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="75" t="s">
         <v>146</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -3254,7 +3263,7 @@
       <c r="H41"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="127" t="s">
         <v>147</v>
       </c>
@@ -3283,10 +3292,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="71"/>
     </row>
-    <row r="44" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="127" t="s">
         <v>150</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="70"/>
       <c r="B45" s="70"/>
       <c r="C45" s="70"/>
@@ -3326,7 +3335,7 @@
       <c r="H45" s="70"/>
       <c r="I45" s="70"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="72" t="s">
         <v>151</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
         <v>154</v>
       </c>
@@ -3384,10 +3393,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="75" t="s">
         <v>156</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3427,7 +3436,7 @@
       <c r="H50"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="127" t="s">
         <v>157</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="70"/>
       <c r="B52" s="70"/>
       <c r="C52" s="70"/>
@@ -3467,7 +3476,7 @@
       <c r="H52" s="70"/>
       <c r="I52" s="70"/>
     </row>
-    <row r="53" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="75" t="s">
         <v>159</v>
       </c>
@@ -3496,10 +3505,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="75" t="s">
         <v>161</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3539,7 +3548,7 @@
       <c r="H56"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="127" t="s">
         <v>163</v>
       </c>
@@ -3568,7 +3577,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="70"/>
       <c r="B58" s="70"/>
       <c r="C58" s="70"/>
@@ -3579,7 +3588,7 @@
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
     </row>
-    <row r="59" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="75" t="s">
         <v>165</v>
       </c>
@@ -3608,7 +3617,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="J60" t="s">
         <v>167</v>
@@ -3620,7 +3629,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="75" t="s">
         <v>166</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -3660,7 +3669,7 @@
       <c r="H62"/>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="127" t="s">
         <v>163</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="70"/>
       <c r="B64" s="70"/>
       <c r="C64" s="70"/>
@@ -3700,7 +3709,7 @@
       <c r="H64" s="70"/>
       <c r="I64" s="70"/>
     </row>
-    <row r="65" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="75" t="s">
         <v>171</v>
       </c>
@@ -3729,7 +3738,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="75" t="s">
         <v>172</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="75" t="s">
         <v>173</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
         <v>174</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="75" t="s">
         <v>53</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="75" t="s">
         <v>176</v>
       </c>
@@ -3874,7 +3883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="75" t="s">
         <v>177</v>
       </c>
@@ -3903,13 +3912,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="75" t="s">
         <v>178</v>
       </c>
@@ -3938,7 +3947,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="75" t="s">
         <v>179</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="75" t="s">
         <v>181</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="75" t="s">
         <v>183</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="75" t="s">
         <v>184</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="75" t="s">
         <v>185</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="75" t="s">
         <v>187</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -4123,7 +4132,7 @@
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="127" t="s">
         <v>189</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="127" t="s">
         <v>190</v>
       </c>
@@ -4181,7 +4190,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="70"/>
       <c r="B84" s="70"/>
       <c r="C84" s="70"/>
@@ -4192,10 +4201,10 @@
       <c r="H84" s="70"/>
       <c r="I84" s="70"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="75" t="s">
         <v>192</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="75" t="s">
         <v>193</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="75" t="s">
         <v>195</v>
       </c>
@@ -4282,7 +4291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="75" t="s">
         <v>196</v>
       </c>
@@ -4311,7 +4320,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="75" t="s">
         <v>198</v>
       </c>
@@ -4340,10 +4349,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="75" t="s">
         <v>200</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="75" t="s">
         <v>201</v>
       </c>
@@ -4401,7 +4410,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="75" t="s">
         <v>202</v>
       </c>
@@ -4430,7 +4439,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="75" t="s">
         <v>203</v>
       </c>
@@ -4459,13 +4468,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="75" t="s">
         <v>204</v>
       </c>
@@ -4494,10 +4503,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -4526,10 +4535,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="75" t="s">
         <v>176</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="75" t="s">
         <v>173</v>
       </c>
@@ -4587,10 +4596,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="75" t="s">
         <v>191</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="75" t="s">
         <v>187</v>
       </c>
@@ -4648,10 +4657,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="75" t="s">
         <v>202</v>
       </c>
@@ -4680,10 +4689,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="75" t="s">
         <v>267</v>
       </c>
@@ -4738,7 +4747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="75" t="s">
         <v>269</v>
       </c>
@@ -4765,7 +4774,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C87">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C87">
     <sortCondition ref="C3:C87"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4782,27 +4791,27 @@
       <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14"/>
-    <col min="2" max="2" width="27.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="14"/>
-    <col min="6" max="6" width="15.83203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="15"/>
-    <col min="8" max="8" width="15.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
-    <col min="11" max="11" width="30.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="14"/>
-    <col min="13" max="13" width="23.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="10.875" style="14"/>
+    <col min="2" max="2" width="27.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="14"/>
+    <col min="6" max="6" width="15.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="15"/>
+    <col min="8" max="8" width="15.375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="14"/>
+    <col min="11" max="11" width="30.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="14"/>
+    <col min="13" max="13" width="23.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="14"/>
     <col min="15" max="15" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="14"/>
+    <col min="16" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
         <v>10</v>
       </c>
@@ -4840,7 +4849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="29"/>
       <c r="G2" s="12"/>
       <c r="I2" s="11" t="s">
@@ -4851,13 +4860,13 @@
       </c>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="G3" s="22"/>
       <c r="H3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="2:16" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>206</v>
       </c>
@@ -4895,7 +4904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:16" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
         <v>60</v>
       </c>
@@ -4904,10 +4913,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="71"/>
     </row>
-    <row r="7" spans="2:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>207</v>
       </c>
@@ -4945,11 +4954,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="2:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>208</v>
       </c>
@@ -4987,12 +4996,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="H10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
       <c r="G11" s="22"/>
       <c r="L11" s="4" t="s">
@@ -5006,7 +5015,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="H12" s="5"/>
       <c r="L12" s="21"/>
@@ -5015,7 +5024,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -5028,7 +5037,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H14" s="17"/>
       <c r="I14" s="14" t="s">
         <v>27</v>
@@ -5038,7 +5047,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
@@ -5047,7 +5056,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="2:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>220</v>
       </c>
@@ -5085,10 +5094,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="70" t="s">
         <v>228</v>
       </c>
@@ -5129,7 +5138,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="70" t="s">
         <v>254</v>
       </c>
@@ -5158,10 +5167,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E20" s="71"/>
     </row>
-    <row r="21" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>70</v>
       </c>
@@ -5199,10 +5208,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>229</v>
       </c>
@@ -5240,11 +5249,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
       <c r="E25" s="1"/>
       <c r="L25" t="s">
@@ -5257,24 +5266,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
       <c r="E27" s="1"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
@@ -5283,7 +5292,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="2:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="42"/>
       <c r="D31" s="28"/>
       <c r="G31" s="26"/>
@@ -5293,14 +5302,14 @@
       <c r="N31" s="3"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H32" s="17"/>
       <c r="L32" s="20"/>
       <c r="M32"/>
       <c r="N32" s="20"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -5311,7 +5320,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -5320,7 +5329,7 @@
       <c r="H34" s="25"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H35" s="17"/>
       <c r="I35" s="14" t="s">
         <v>28</v>
@@ -5330,14 +5339,14 @@
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H37" s="17"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -5381,7 +5390,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>209</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>230</v>
       </c>
@@ -5463,11 +5472,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -5496,7 +5505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>61</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="L44" t="s">
         <v>57</v>
@@ -5517,7 +5526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="70" t="s">
         <v>231</v>
       </c>
@@ -5546,7 +5555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
       <c r="E46" s="1"/>
       <c r="L46" t="s">
@@ -5559,11 +5568,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -5583,7 +5592,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -5596,7 +5605,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -5608,7 +5617,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
@@ -5620,17 +5629,17 @@
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H52" s="17"/>
       <c r="L52" s="21"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -5639,7 +5648,7 @@
       <c r="H55" s="25"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
@@ -5648,7 +5657,7 @@
       <c r="H56" s="25"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H57" s="17"/>
       <c r="I57" s="3" t="s">
         <v>91</v>
@@ -5658,7 +5667,7 @@
       </c>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="41"/>
       <c r="G58" s="18"/>
       <c r="H58" s="19"/>
@@ -5673,17 +5682,17 @@
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="38"/>
       <c r="E59" s="1"/>
       <c r="L59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="38"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>241</v>
       </c>
@@ -5721,10 +5730,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -5768,7 +5777,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>221</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>222</v>
       </c>
@@ -5847,7 +5856,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>243</v>
       </c>
@@ -5882,7 +5891,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -5917,7 +5926,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>242</v>
       </c>
@@ -5946,13 +5955,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="M72" t="s">
         <v>242</v>
@@ -5961,10 +5970,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="M74" t="s">
         <v>241</v>
@@ -5973,13 +5982,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="70" t="s">
         <v>210</v>
       </c>
@@ -6008,10 +6017,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E78" s="71"/>
     </row>
-    <row r="79" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>244</v>
       </c>
@@ -6049,10 +6058,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>65</v>
       </c>
@@ -6090,7 +6099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
@@ -6099,10 +6108,10 @@
       <c r="H82" s="25"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="41"/>
       <c r="G84" s="18"/>
       <c r="H84" s="19"/>
@@ -6117,7 +6126,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
     </row>
-    <row r="85" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="41"/>
       <c r="G85" s="18"/>
       <c r="H85" s="19"/>
@@ -6130,19 +6139,19 @@
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H86" s="17"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="2:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="38"/>
       <c r="E87" s="1"/>
       <c r="L87" s="14"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="70" t="s">
         <v>223</v>
       </c>
@@ -6180,10 +6189,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E89" s="71"/>
     </row>
-    <row r="90" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="70" t="s">
         <v>211</v>
       </c>
@@ -6221,10 +6230,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E91" s="71"/>
     </row>
-    <row r="92" spans="2:15" s="72" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="72" t="s">
         <v>151</v>
       </c>
@@ -6253,7 +6262,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>233</v>
       </c>
@@ -6285,10 +6294,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>69</v>
       </c>
@@ -6326,10 +6335,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
@@ -6338,7 +6347,7 @@
       <c r="H97" s="25"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
@@ -6347,10 +6356,10 @@
       <c r="H98" s="25"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H100" s="17"/>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -6360,7 +6369,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H101" s="17"/>
       <c r="I101" s="14" t="s">
         <v>7</v>
@@ -6369,7 +6378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
@@ -6383,7 +6392,7 @@
       <c r="P102" s="21"/>
       <c r="Q102" s="21"/>
     </row>
-    <row r="103" spans="2:17" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:17" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="70" t="s">
         <v>212</v>
       </c>
@@ -6421,10 +6430,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="2:17" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:17" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E104" s="71"/>
     </row>
-    <row r="105" spans="2:17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>62</v>
       </c>
@@ -6462,10 +6471,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="2:17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="2:17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>234</v>
       </c>
@@ -6503,10 +6512,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H109" s="17"/>
       <c r="L109" s="14" t="s">
         <v>57</v>
@@ -6518,10 +6527,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
@@ -6530,7 +6539,7 @@
       <c r="H111" s="25"/>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
@@ -6539,7 +6548,7 @@
       <c r="H112" s="25"/>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H113" s="17"/>
       <c r="I113" s="3" t="s">
         <v>31</v>
@@ -6548,7 +6557,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H114" s="17"/>
       <c r="I114" s="14" t="s">
         <v>32</v>
@@ -6557,7 +6566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="2:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="38"/>
       <c r="E115" s="1"/>
       <c r="L115" s="14"/>
@@ -6565,7 +6574,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
     </row>
-    <row r="116" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="70" t="s">
         <v>59</v>
       </c>
@@ -6603,10 +6612,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="2:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E117" s="71"/>
     </row>
-    <row r="118" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>224</v>
       </c>
@@ -6635,10 +6644,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>213</v>
       </c>
@@ -6667,19 +6676,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H121" s="17"/>
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
       <c r="O121"/>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H122" s="17"/>
       <c r="M122"/>
       <c r="O122"/>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
@@ -6688,7 +6697,7 @@
       <c r="H123" s="25"/>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
@@ -6697,7 +6706,7 @@
       <c r="H124" s="25"/>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H125" s="17"/>
       <c r="I125" s="3" t="s">
         <v>33</v>
@@ -6707,7 +6716,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="41"/>
       <c r="G126" s="18"/>
       <c r="H126" s="19"/>
@@ -6723,23 +6732,23 @@
       <c r="N126" s="14"/>
       <c r="O126" s="14"/>
     </row>
-    <row r="127" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="41"/>
       <c r="G127" s="18"/>
       <c r="H127" s="19"/>
     </row>
-    <row r="128" spans="2:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="38"/>
       <c r="E128" s="1"/>
       <c r="L128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="37"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="70" t="s">
         <v>59</v>
       </c>
@@ -6768,10 +6777,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E131" s="71"/>
     </row>
-    <row r="132" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>214</v>
       </c>
@@ -6812,7 +6821,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>245</v>
       </c>
@@ -6853,7 +6862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -6897,7 +6906,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>238</v>
       </c>
@@ -6935,7 +6944,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>73</v>
       </c>
@@ -6970,7 +6979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="137" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>55</v>
       </c>
@@ -7005,7 +7014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>66</v>
       </c>
@@ -7040,7 +7049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E139" s="1"/>
       <c r="K139" t="s">
         <v>75</v>
@@ -7049,7 +7058,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E140" s="1"/>
       <c r="K140" t="s">
         <v>75</v>
@@ -7058,7 +7067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E141" s="1"/>
       <c r="K141" t="s">
         <v>75</v>
@@ -7067,7 +7076,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E142" s="1"/>
       <c r="K142" t="s">
         <v>75</v>
@@ -7076,7 +7085,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E143" s="1"/>
       <c r="K143" t="s">
         <v>75</v>
@@ -7088,16 +7097,16 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>225</v>
       </c>
@@ -7138,7 +7147,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="148" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -7182,7 +7191,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>67</v>
       </c>
@@ -7223,7 +7232,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>63</v>
       </c>
@@ -7261,7 +7270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>239</v>
       </c>
@@ -7296,7 +7305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>226</v>
       </c>
@@ -7331,7 +7340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>246</v>
       </c>
@@ -7366,7 +7375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E154" s="1"/>
       <c r="K154" t="s">
         <v>77</v>
@@ -7375,7 +7384,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E155" s="1"/>
       <c r="K155" t="s">
         <v>77</v>
@@ -7384,7 +7393,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="156" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E156" s="1"/>
       <c r="K156" t="s">
         <v>77</v>
@@ -7393,7 +7402,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E157" s="1"/>
       <c r="K157" t="s">
         <v>77</v>
@@ -7402,7 +7411,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E158" s="1"/>
       <c r="K158" t="s">
         <v>77</v>
@@ -7414,31 +7423,31 @@
         <v>260</v>
       </c>
     </row>
-    <row r="159" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="70" t="s">
         <v>253</v>
       </c>
@@ -7479,7 +7488,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="70" t="s">
         <v>216</v>
       </c>
@@ -7511,13 +7520,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="70" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E169" s="71"/>
     </row>
-    <row r="170" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>68</v>
       </c>
@@ -7558,7 +7567,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="172" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>217</v>
       </c>
@@ -7596,7 +7605,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="173" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -7640,7 +7649,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>250</v>
       </c>
@@ -7675,7 +7684,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>219</v>
       </c>
@@ -7710,7 +7719,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E176" s="1"/>
       <c r="L176" t="s">
         <v>251</v>
@@ -7719,29 +7728,29 @@
         <v>260</v>
       </c>
     </row>
-    <row r="177" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E183" s="1"/>
       <c r="L183" s="14"/>
     </row>
-    <row r="184" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>236</v>
       </c>
@@ -7782,7 +7791,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -7826,7 +7835,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>237</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="187" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>247</v>
       </c>
@@ -7908,7 +7917,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="188" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E188" s="1"/>
       <c r="K188" t="s">
         <v>76</v>
@@ -7920,14 +7929,14 @@
         <v>260</v>
       </c>
     </row>
-    <row r="189" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E189" s="1"/>
       <c r="L189" s="14"/>
     </row>
-    <row r="190" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>72</v>
       </c>
@@ -7965,10 +7974,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>213</v>
       </c>
@@ -8006,14 +8015,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="2:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="37"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="2:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="37"/>
     </row>
-    <row r="199" spans="2:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="38"/>
       <c r="E199" s="1"/>
       <c r="L199" s="14"/>
@@ -8021,7 +8030,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="14"/>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G200" s="14"/>
       <c r="J200" s="14" t="s">
         <v>35</v>
@@ -8034,15 +8043,15 @@
       <c r="N200"/>
       <c r="O200"/>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G201" s="14"/>
       <c r="L201"/>
       <c r="M201"/>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G202" s="14"/>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G203" s="14"/>
       <c r="J203" s="14" t="s">
         <v>36</v>
@@ -8051,14 +8060,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G204" s="14"/>
     </row>
-    <row r="205" spans="2:15" s="44" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:15" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B205" s="43"/>
       <c r="E205" s="45"/>
     </row>
-    <row r="206" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>55</v>
       </c>
@@ -8096,7 +8105,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="207" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>235</v>
       </c>
@@ -8125,10 +8134,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>58</v>
       </c>
@@ -8166,7 +8175,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="210" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>246</v>
       </c>
@@ -8195,10 +8204,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>237</v>
       </c>
@@ -8236,10 +8245,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="2:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>248</v>
       </c>
@@ -8277,13 +8286,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="2:15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B215" s="38" t="s">
         <v>329</v>
       </c>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L216" s="14" t="s">
         <v>74</v>
       </c>
@@ -8294,7 +8303,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L219" s="14" t="s">
         <v>74</v>
       </c>
@@ -8319,24 +8328,24 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="47" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="21"/>
-    <col min="5" max="5" width="10.83203125" style="22"/>
-    <col min="6" max="6" width="8.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="21"/>
+    <col min="5" max="5" width="10.875" style="22"/>
+    <col min="6" max="6" width="8.125" style="21" customWidth="1"/>
     <col min="7" max="8" width="11" style="4"/>
-    <col min="10" max="10" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
@@ -8360,19 +8369,19 @@
       </c>
       <c r="H1" s="115"/>
     </row>
-    <row r="2" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="114"/>
       <c r="F2" s="112"/>
       <c r="G2" s="115"/>
       <c r="H2" s="115"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>110</v>
       </c>
@@ -8392,7 +8401,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>122</v>
       </c>
@@ -8412,7 +8421,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>124</v>
       </c>
@@ -8432,7 +8441,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>128</v>
       </c>
@@ -8452,7 +8461,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>130</v>
       </c>
@@ -8472,7 +8481,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -8492,7 +8501,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>154</v>
       </c>
@@ -8512,7 +8521,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>161</v>
       </c>
@@ -8532,7 +8541,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
         <v>163</v>
       </c>
@@ -8552,7 +8561,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
         <v>163</v>
       </c>
@@ -8572,7 +8581,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>173</v>
       </c>
@@ -8592,7 +8601,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>176</v>
       </c>
@@ -8612,7 +8621,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>176</v>
       </c>
@@ -8632,7 +8641,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>173</v>
       </c>
@@ -8652,7 +8661,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>191</v>
       </c>
@@ -8672,7 +8681,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>200</v>
       </c>
@@ -8692,7 +8701,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>202</v>
       </c>
@@ -8712,7 +8721,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>202</v>
       </c>
@@ -8732,7 +8741,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>329</v>
       </c>
@@ -8752,7 +8761,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="117" t="s">
         <v>205</v>
       </c>
@@ -8772,7 +8781,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -8780,7 +8789,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="46"/>
       <c r="C24" s="4"/>
@@ -8788,7 +8797,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="112" t="s">
         <v>319</v>
@@ -8798,7 +8807,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>138</v>
       </c>
@@ -8818,7 +8827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>196</v>
       </c>
@@ -8838,7 +8847,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>269</v>
       </c>
@@ -8858,7 +8867,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="46"/>
       <c r="C29" s="4"/>
@@ -8866,7 +8875,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="46"/>
       <c r="C30" s="4"/>
@@ -8874,7 +8883,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="112" t="s">
         <v>37</v>
@@ -8884,7 +8893,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>133</v>
       </c>
@@ -8904,7 +8913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>156</v>
       </c>
@@ -8924,7 +8933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>172</v>
       </c>
@@ -8944,7 +8953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="46"/>
       <c r="C35" s="4"/>
@@ -8952,7 +8961,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="112" t="s">
         <v>38</v>
@@ -8962,7 +8971,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>116</v>
       </c>
@@ -8982,7 +8991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>118</v>
       </c>
@@ -9002,7 +9011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>336</v>
       </c>
@@ -9022,7 +9031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>127</v>
       </c>
@@ -9042,7 +9051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>129</v>
       </c>
@@ -9062,7 +9071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>141</v>
       </c>
@@ -9082,7 +9091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
         <v>142</v>
       </c>
@@ -9102,7 +9111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>146</v>
       </c>
@@ -9122,7 +9131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="116" t="s">
         <v>150</v>
       </c>
@@ -9142,7 +9151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="116" t="s">
         <v>379</v>
       </c>
@@ -9162,7 +9171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>166</v>
       </c>
@@ -9182,7 +9191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>171</v>
       </c>
@@ -9202,7 +9211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>177</v>
       </c>
@@ -9228,7 +9237,7 @@
       <c r="N49" s="72"/>
       <c r="O49" s="72"/>
     </row>
-    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>179</v>
       </c>
@@ -9248,7 +9257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>181</v>
       </c>
@@ -9268,7 +9277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="116" t="s">
         <v>190</v>
       </c>
@@ -9288,7 +9297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>192</v>
       </c>
@@ -9308,7 +9317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>193</v>
       </c>
@@ -9328,7 +9337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>195</v>
       </c>
@@ -9348,7 +9357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>198</v>
       </c>
@@ -9368,7 +9377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>166</v>
       </c>
@@ -9388,7 +9397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="46"/>
       <c r="C58" s="4"/>
@@ -9396,17 +9405,17 @@
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="46"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="118" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>187</v>
       </c>
@@ -9426,7 +9435,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>187</v>
       </c>
@@ -9446,21 +9455,21 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="46"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="46"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="112" t="s">
         <v>43</v>
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
@@ -9480,7 +9489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
@@ -9500,7 +9509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>136</v>
       </c>
@@ -9520,7 +9529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
         <v>147</v>
       </c>
@@ -9540,7 +9549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>165</v>
       </c>
@@ -9560,7 +9569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>178</v>
       </c>
@@ -9580,7 +9589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>185</v>
       </c>
@@ -9600,7 +9609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>201</v>
       </c>
@@ -9620,7 +9629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="46"/>
       <c r="C74" s="4"/>
@@ -9634,7 +9643,7 @@
       <c r="N74" s="70"/>
       <c r="O74" s="70"/>
     </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="46"/>
       <c r="C75" s="4"/>
@@ -9642,7 +9651,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="46"/>
       <c r="C76" s="4"/>
@@ -9650,7 +9659,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="112" t="s">
         <v>39</v>
@@ -9660,7 +9669,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>123</v>
       </c>
@@ -9686,7 +9695,7 @@
       <c r="N78" s="70"/>
       <c r="O78" s="70"/>
     </row>
-    <row r="79" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>174</v>
       </c>
@@ -9706,7 +9715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>53</v>
       </c>
@@ -9726,7 +9735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>184</v>
       </c>
@@ -9746,7 +9755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>204</v>
       </c>
@@ -9766,7 +9775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="46"/>
       <c r="C83" s="4"/>
@@ -9774,7 +9783,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="46"/>
       <c r="C84" s="4"/>
@@ -9782,7 +9791,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="46"/>
       <c r="C85" s="4"/>
@@ -9790,7 +9799,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="46"/>
       <c r="C86" s="4"/>
@@ -9804,7 +9813,7 @@
       <c r="N86" s="70"/>
       <c r="O86" s="70"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="112" t="s">
         <v>40</v>
@@ -9814,7 +9823,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>267</v>
       </c>
@@ -9834,7 +9843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>125</v>
       </c>
@@ -9860,7 +9869,7 @@
       <c r="N89" s="70"/>
       <c r="O89" s="70"/>
     </row>
-    <row r="90" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>268</v>
       </c>
@@ -9886,7 +9895,7 @@
       <c r="N90" s="70"/>
       <c r="O90" s="70"/>
     </row>
-    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>131</v>
       </c>
@@ -9906,7 +9915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>144</v>
       </c>
@@ -9926,7 +9935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>159</v>
       </c>
@@ -9952,7 +9961,7 @@
       <c r="N93" s="70"/>
       <c r="O93" s="70"/>
     </row>
-    <row r="94" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>183</v>
       </c>
@@ -9972,7 +9981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="116" t="s">
         <v>189</v>
       </c>
@@ -9992,7 +10001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>203</v>
       </c>
@@ -10018,14 +10027,14 @@
       <c r="N96" s="70"/>
       <c r="O96" s="70"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="46"/>
       <c r="C98" s="4"/>
@@ -10033,7 +10042,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="46"/>
       <c r="C99" s="4"/>
@@ -10047,7 +10056,7 @@
       <c r="N99" s="70"/>
       <c r="O99" s="70"/>
     </row>
-    <row r="100" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="46"/>
       <c r="C100" s="4"/>
@@ -10055,7 +10064,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="46"/>
       <c r="C101" s="4"/>
@@ -10063,7 +10072,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="46"/>
       <c r="C102" s="4"/>
@@ -10071,7 +10080,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="46"/>
       <c r="C103" s="4"/>
@@ -10085,7 +10094,7 @@
       <c r="N103" s="70"/>
       <c r="O103" s="70"/>
     </row>
-    <row r="104" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="46"/>
       <c r="C104" s="4"/>
@@ -10093,7 +10102,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="46"/>
       <c r="C105" s="4"/>
@@ -10101,7 +10110,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="46"/>
       <c r="C106" s="4"/>
@@ -10109,7 +10118,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="46"/>
       <c r="C107" s="4"/>
@@ -10117,7 +10126,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="46"/>
       <c r="C108" s="4"/>
@@ -10125,7 +10134,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="46"/>
       <c r="C109" s="4"/>
@@ -10133,7 +10142,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="46"/>
       <c r="C110" s="4"/>
@@ -10141,7 +10150,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="46"/>
       <c r="C111" s="4"/>
@@ -10149,7 +10158,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="46"/>
       <c r="C112" s="4"/>
@@ -10157,7 +10166,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="46"/>
       <c r="C113" s="4"/>
@@ -10165,7 +10174,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="46"/>
       <c r="C114" s="4"/>
@@ -10173,10 +10182,10 @@
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="119"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="112"/>
       <c r="B117" s="118"/>
       <c r="C117" s="120"/>
@@ -10184,14 +10193,14 @@
       <c r="E117" s="114"/>
       <c r="F117" s="112"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="46"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="46"/>
       <c r="C119" s="4"/>
@@ -10199,7 +10208,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="46"/>
       <c r="C120" s="4"/>
@@ -10207,7 +10216,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="46"/>
       <c r="C121" s="4"/>
@@ -10215,7 +10224,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="46"/>
       <c r="C122" s="4"/>
@@ -10223,7 +10232,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="46"/>
       <c r="C123" s="4"/>
@@ -10231,7 +10240,7 @@
       <c r="E123" s="34"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="46"/>
       <c r="C124" s="4"/>
@@ -10239,7 +10248,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="46"/>
       <c r="C126" s="4"/>
@@ -10247,10 +10256,10 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128" s="121"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="122"/>
       <c r="B129" s="119"/>
       <c r="C129" s="122"/>
@@ -10258,7 +10267,7 @@
       <c r="E129" s="123"/>
       <c r="F129" s="122"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="122"/>
       <c r="B130" s="119"/>
       <c r="C130" s="122"/>
@@ -10266,7 +10275,7 @@
       <c r="E130" s="123"/>
       <c r="F130" s="122"/>
     </row>
-    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="46"/>
       <c r="C131" s="4"/>
@@ -10274,7 +10283,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="46"/>
       <c r="C132" s="4"/>
@@ -10282,7 +10291,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="46"/>
       <c r="C133" s="4"/>
@@ -10290,7 +10299,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="46"/>
       <c r="C134" s="4"/>
@@ -10298,7 +10307,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="46"/>
       <c r="C135" s="4"/>
@@ -10306,7 +10315,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="122"/>
       <c r="B136" s="119"/>
       <c r="C136" s="122"/>
@@ -10314,7 +10323,7 @@
       <c r="E136" s="123"/>
       <c r="F136" s="122"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="B137" s="124"/>
       <c r="C137" s="28"/>
@@ -10322,13 +10331,13 @@
       <c r="E137" s="125"/>
       <c r="F137" s="28"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C139" s="122"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C141" s="121"/>
     </row>
-    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="46"/>
       <c r="C144" s="4"/>
@@ -10336,7 +10345,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="46"/>
       <c r="C145" s="4"/>
@@ -10344,7 +10353,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="46"/>
       <c r="C146" s="4"/>
@@ -10352,7 +10361,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="46"/>
       <c r="C147" s="4"/>
@@ -10360,10 +10369,10 @@
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C157" s="121"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="122"/>
       <c r="B158" s="119"/>
       <c r="C158" s="122"/>
@@ -10371,7 +10380,7 @@
       <c r="E158" s="123"/>
       <c r="F158" s="122"/>
     </row>
-    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="46"/>
       <c r="C159" s="4"/>
@@ -10379,7 +10388,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="46"/>
       <c r="C160" s="4"/>
@@ -10387,7 +10396,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="46"/>
       <c r="C161" s="4"/>
@@ -10395,7 +10404,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="46"/>
       <c r="C162" s="4"/>
@@ -10403,7 +10412,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="122"/>
       <c r="B170" s="119"/>
       <c r="C170" s="122"/>
@@ -10411,13 +10420,13 @@
       <c r="E170" s="123"/>
       <c r="F170" s="122"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="122"/>
       <c r="D171" s="122"/>
       <c r="E171" s="123"/>
       <c r="F171" s="122"/>
     </row>
-    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="46"/>
       <c r="C173" s="4"/>
@@ -10425,7 +10434,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="46"/>
       <c r="C174" s="4"/>
@@ -10433,7 +10442,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="46"/>
       <c r="C175" s="4"/>
@@ -10441,11 +10450,11 @@
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B181" s="119"/>
       <c r="C181" s="122"/>
     </row>
-    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="46"/>
       <c r="C184" s="4"/>
@@ -10453,7 +10462,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="46"/>
       <c r="C192" s="4"/>
@@ -10461,7 +10470,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="46"/>
       <c r="C193" s="4"/>
@@ -10469,18 +10478,18 @@
       <c r="E193" s="4"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B198" s="119"/>
       <c r="C198" s="122"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="122"/>
       <c r="C199" s="121"/>
       <c r="D199" s="122"/>
       <c r="E199" s="123"/>
       <c r="F199" s="122"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="122"/>
       <c r="B200" s="119"/>
       <c r="C200" s="122"/>
@@ -10488,7 +10497,7 @@
       <c r="E200" s="123"/>
       <c r="F200" s="122"/>
     </row>
-    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="46"/>
       <c r="C201" s="4"/>
@@ -10496,7 +10505,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="46"/>
       <c r="C202" s="4"/>
@@ -10504,7 +10513,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="46"/>
       <c r="C203" s="4"/>
@@ -10512,7 +10521,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="46"/>
       <c r="C204" s="4"/>
@@ -10520,7 +10529,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="46"/>
       <c r="C205" s="4"/>
@@ -10528,7 +10537,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="46"/>
       <c r="C207" s="4"/>
@@ -10536,7 +10545,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="46"/>
       <c r="C208" s="4"/>
@@ -10544,7 +10553,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="46"/>
       <c r="C210" s="4"/>
@@ -10552,7 +10561,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="46"/>
       <c r="C220" s="4"/>
@@ -10560,31 +10569,31 @@
       <c r="E220" s="4"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E221" s="21"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E222" s="21"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E223" s="21"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E224" s="21"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E225" s="21"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E226" s="21"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E227" s="21"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E228" s="21"/>
     </row>
-    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="46"/>
       <c r="C229" s="4"/>
@@ -10592,7 +10601,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="46"/>
       <c r="C230" s="4"/>
@@ -10600,7 +10609,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="46"/>
       <c r="C231" s="4"/>
@@ -10608,7 +10617,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="46"/>
       <c r="C232" s="4"/>
@@ -10616,7 +10625,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="46"/>
       <c r="C233" s="4"/>
@@ -10625,7 +10634,7 @@
       <c r="F233" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="J1:O233">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J1:O233">
     <sortCondition ref="O1:O233"/>
     <sortCondition ref="N1:N233"/>
     <sortCondition ref="K1:K233"/>
@@ -10646,14 +10655,14 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -10676,7 +10685,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>267</v>
       </c>
@@ -10699,7 +10708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>110</v>
       </c>
@@ -10722,7 +10731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>120</v>
       </c>
@@ -10745,7 +10754,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>116</v>
       </c>
@@ -10768,7 +10777,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
         <v>122</v>
       </c>
@@ -10791,7 +10800,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>125</v>
       </c>
@@ -10814,7 +10823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>127</v>
       </c>
@@ -10837,7 +10846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>128</v>
       </c>
@@ -10860,7 +10869,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>123</v>
       </c>
@@ -10883,7 +10892,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
         <v>254</v>
       </c>
@@ -10906,7 +10915,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>268</v>
       </c>
@@ -10929,7 +10938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>124</v>
       </c>
@@ -10952,7 +10961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>129</v>
       </c>
@@ -10975,7 +10984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>131</v>
       </c>
@@ -10998,7 +11007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>135</v>
       </c>
@@ -11021,7 +11030,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>133</v>
       </c>
@@ -11044,7 +11053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
         <v>130</v>
       </c>
@@ -11067,7 +11076,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
         <v>147</v>
       </c>
@@ -11090,7 +11099,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>138</v>
       </c>
@@ -11113,7 +11122,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>118</v>
       </c>
@@ -11136,7 +11145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>141</v>
       </c>
@@ -11159,7 +11168,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>136</v>
       </c>
@@ -11182,7 +11191,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>134</v>
       </c>
@@ -11205,7 +11214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
         <v>142</v>
       </c>
@@ -11228,7 +11237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>154</v>
       </c>
@@ -11251,7 +11260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>144</v>
       </c>
@@ -11274,7 +11283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
         <v>150</v>
       </c>
@@ -11297,7 +11306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="83" t="s">
         <v>157</v>
       </c>
@@ -11320,7 +11329,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>53</v>
       </c>
@@ -11343,7 +11352,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="83" t="s">
         <v>163</v>
       </c>
@@ -11366,7 +11375,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="83" t="s">
         <v>163</v>
       </c>
@@ -11389,7 +11398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>173</v>
       </c>
@@ -11412,7 +11421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>174</v>
       </c>
@@ -11435,7 +11444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>165</v>
       </c>
@@ -11458,7 +11467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>177</v>
       </c>
@@ -11481,7 +11490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>173</v>
       </c>
@@ -11504,7 +11513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>171</v>
       </c>
@@ -11527,7 +11536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>176</v>
       </c>
@@ -11550,7 +11559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>176</v>
       </c>
@@ -11573,7 +11582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>159</v>
       </c>
@@ -11596,7 +11605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>172</v>
       </c>
@@ -11619,7 +11628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>178</v>
       </c>
@@ -11642,7 +11651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>179</v>
       </c>
@@ -11665,7 +11674,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>187</v>
       </c>
@@ -11688,7 +11697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>191</v>
       </c>
@@ -11711,7 +11720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>187</v>
       </c>
@@ -11734,7 +11743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>181</v>
       </c>
@@ -11757,7 +11766,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>183</v>
       </c>
@@ -11780,7 +11789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>184</v>
       </c>
@@ -11803,7 +11812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>185</v>
       </c>
@@ -11826,7 +11835,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>190</v>
       </c>
@@ -11849,7 +11858,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>189</v>
       </c>
@@ -11872,7 +11881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>196</v>
       </c>
@@ -11895,7 +11904,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>195</v>
       </c>
@@ -11918,7 +11927,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>192</v>
       </c>
@@ -11941,7 +11950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>146</v>
       </c>
@@ -11964,7 +11973,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>198</v>
       </c>
@@ -11987,7 +11996,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>202</v>
       </c>
@@ -12010,7 +12019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>202</v>
       </c>
@@ -12033,7 +12042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>200</v>
       </c>
@@ -12056,7 +12065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>201</v>
       </c>
@@ -12079,7 +12088,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>269</v>
       </c>
@@ -12102,7 +12111,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>204</v>
       </c>
@@ -12125,7 +12134,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>203</v>
       </c>
@@ -12148,7 +12157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>156</v>
       </c>
@@ -12171,7 +12180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>166</v>
       </c>
@@ -12194,7 +12203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>166</v>
       </c>
@@ -12217,7 +12226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>161</v>
       </c>
@@ -12240,7 +12249,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>205</v>
       </c>
@@ -12263,7 +12272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="68" t="s">
         <v>151</v>
       </c>
@@ -12286,7 +12295,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>193</v>
       </c>
@@ -12306,7 +12315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="83"/>
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
@@ -12315,7 +12324,7 @@
       <c r="F73" s="70"/>
       <c r="G73" s="70"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="83"/>
       <c r="B77" s="70"/>
       <c r="C77" s="70"/>
@@ -12324,7 +12333,7 @@
       <c r="F77" s="70"/>
       <c r="G77" s="70"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="83"/>
       <c r="B85" s="70"/>
       <c r="C85" s="70"/>
@@ -12333,7 +12342,7 @@
       <c r="F85" s="70"/>
       <c r="G85" s="70"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="83"/>
       <c r="B88" s="70"/>
       <c r="C88" s="70"/>
@@ -12342,7 +12351,7 @@
       <c r="F88" s="70"/>
       <c r="G88" s="70"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="83"/>
       <c r="B89" s="70"/>
       <c r="C89" s="70"/>
@@ -12351,7 +12360,7 @@
       <c r="F89" s="70"/>
       <c r="G89" s="70"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="83"/>
       <c r="B92" s="70"/>
       <c r="C92" s="70"/>
@@ -12360,7 +12369,7 @@
       <c r="F92" s="70"/>
       <c r="G92" s="70"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="83"/>
       <c r="B95" s="70"/>
       <c r="C95" s="70"/>
@@ -12369,7 +12378,7 @@
       <c r="F95" s="70"/>
       <c r="G95" s="70"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="83"/>
       <c r="B98" s="70"/>
       <c r="C98" s="70"/>
@@ -12378,7 +12387,7 @@
       <c r="F98" s="70"/>
       <c r="G98" s="70"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="83"/>
       <c r="B102" s="70"/>
       <c r="C102" s="70"/>
@@ -12388,7 +12397,7 @@
       <c r="G102" s="70"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H185">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H185">
     <sortCondition ref="E2:E185"/>
     <sortCondition ref="D2:D185"/>
   </sortState>
@@ -12409,28 +12418,28 @@
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="9" customWidth="1"/>
     <col min="3" max="3" width="9" style="53" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="9"/>
-    <col min="7" max="7" width="9.6640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="57" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="59" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="65" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="61" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="63" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="9"/>
-    <col min="17" max="17" width="10.83203125" style="136"/>
-    <col min="18" max="16384" width="10.83203125" style="9"/>
+    <col min="4" max="4" width="8.875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="9"/>
+    <col min="7" max="7" width="9.625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="57" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="65" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="61" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="63" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="9"/>
+    <col min="17" max="17" width="10.875" style="131"/>
+    <col min="18" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -12459,9 +12468,9 @@
       <c r="N1" s="65"/>
       <c r="O1" s="61"/>
       <c r="P1" s="63"/>
-      <c r="Q1" s="134"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q1" s="129"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -12474,9 +12483,9 @@
       <c r="N2" s="65"/>
       <c r="O2" s="61"/>
       <c r="P2" s="63"/>
-      <c r="Q2" s="134"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="129"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>360</v>
       </c>
@@ -12518,11 +12527,11 @@
       <c r="P3" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="135" t="s">
+      <c r="Q3" s="130" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="C4" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B4, 'Weigh In List '!A:A, 0)),"")</f>
@@ -12546,39 +12555,39 @@
         <v>81</v>
       </c>
       <c r="J4" s="53">
-        <f>COUNTIFS($E:$E, J$3, $F:$F, "Gold")</f>
+        <f t="shared" ref="J4:Q4" si="0">COUNTIFS($E:$E, J$3, $F:$F, "Gold")</f>
         <v>6</v>
       </c>
       <c r="K4" s="55">
-        <f>COUNTIFS($E:$E, K$3, $F:$F, "Gold")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L4" s="57">
-        <f>COUNTIFS($E:$E, L$3, $F:$F, "Gold")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M4" s="59">
-        <f>COUNTIFS($E:$E, M$3, $F:$F, "Gold")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="65">
-        <f>COUNTIFS($E:$E, N$3, $F:$F, "Gold")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O4" s="61">
-        <f>COUNTIFS($E:$E, O$3, $F:$F, "Gold")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P4" s="63">
-        <f>COUNTIFS($E:$E, P$3, $F:$F, "Gold")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="134">
-        <f>COUNTIFS($E:$E, Q$3, $F:$F, "Gold")</f>
+      <c r="Q4" s="129">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B5, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -12598,39 +12607,39 @@
         <v>82</v>
       </c>
       <c r="J5" s="53">
-        <f>COUNTIFS($E:$E, J$3, $F:$F, "Silver")</f>
+        <f t="shared" ref="J5:Q5" si="1">COUNTIFS($E:$E, J$3, $F:$F, "Silver")</f>
         <v>0</v>
       </c>
       <c r="K5" s="55">
-        <f>COUNTIFS($E:$E, K$3, $F:$F, "Silver")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="57">
-        <f>COUNTIFS($E:$E, L$3, $F:$F, "Silver")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="59">
-        <f>COUNTIFS($E:$E, M$3, $F:$F, "Silver")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="65">
-        <f>COUNTIFS($E:$E, N$3, $F:$F, "Silver")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="61">
-        <f>COUNTIFS($E:$E, O$3, $F:$F, "Silver")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="63">
-        <f>COUNTIFS($E:$E, P$3, $F:$F, "Silver")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="134">
-        <f>COUNTIFS($E:$E, Q$3, $F:$F, "Silver")</f>
+      <c r="Q5" s="129">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>362</v>
       </c>
@@ -12659,39 +12668,39 @@
         <v>83</v>
       </c>
       <c r="J6" s="53">
-        <f>COUNTIFS($E:$E, J$3, $F:$F, "Bronze")</f>
+        <f t="shared" ref="J6:Q6" si="2">COUNTIFS($E:$E, J$3, $F:$F, "Bronze")</f>
         <v>0</v>
       </c>
       <c r="K6" s="55">
-        <f>COUNTIFS($E:$E, K$3, $F:$F, "Bronze")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="57">
-        <f>COUNTIFS($E:$E, L$3, $F:$F, "Bronze")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="59">
-        <f>COUNTIFS($E:$E, M$3, $F:$F, "Bronze")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6" s="65">
-        <f>COUNTIFS($E:$E, N$3, $F:$F, "Bronze")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O6" s="61">
-        <f>COUNTIFS($E:$E, O$3, $F:$F, "Bronze")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6" s="63">
-        <f>COUNTIFS($E:$E, P$3, $F:$F, "Bronze")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="134">
-        <f>COUNTIFS($E:$E, Q$3, $F:$F, "Bronze")</f>
+      <c r="Q6" s="129">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B7, 'Weigh In List '!A:A, 0)),"")</f>
@@ -12710,39 +12719,39 @@
         <v>84</v>
       </c>
       <c r="J7" s="52">
-        <f t="shared" ref="J7:Q7" si="0">J$4*3+J$5*2+J$6</f>
+        <f t="shared" ref="J7:Q7" si="3">J$4*3+J$5*2+J$6</f>
         <v>18</v>
       </c>
       <c r="K7" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L7" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M7" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O7" s="60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P7" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="135">
-        <f t="shared" si="0"/>
+      <c r="Q7" s="130">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>363</v>
       </c>
@@ -12773,9 +12782,9 @@
       <c r="N8" s="65"/>
       <c r="O8" s="61"/>
       <c r="P8" s="63"/>
-      <c r="Q8" s="134"/>
-    </row>
-    <row r="9" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q8" s="129"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="C9" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B9, 'Weigh In List '!A:A, 0)),"")</f>
@@ -12800,9 +12809,9 @@
       <c r="N9" s="65"/>
       <c r="O9" s="61"/>
       <c r="P9" s="63"/>
-      <c r="Q9" s="134"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="129"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -12827,9 +12836,9 @@
       <c r="N10" s="65"/>
       <c r="O10" s="61"/>
       <c r="P10" s="63"/>
-      <c r="Q10" s="134"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="129"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B11, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -12851,9 +12860,9 @@
       <c r="N11" s="65"/>
       <c r="O11" s="61"/>
       <c r="P11" s="63"/>
-      <c r="Q11" s="134"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="129"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>365</v>
       </c>
@@ -12884,9 +12893,9 @@
       <c r="N12" s="65"/>
       <c r="O12" s="61"/>
       <c r="P12" s="63"/>
-      <c r="Q12" s="134"/>
-    </row>
-    <row r="13" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q12" s="129"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B13, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -12911,35 +12920,35 @@
         <v>18</v>
       </c>
       <c r="K13" s="55">
-        <f t="shared" ref="K13:P13" si="1">SUM(K7:K10)</f>
+        <f t="shared" ref="K13:P13" si="4">SUM(K7:K10)</f>
         <v>6</v>
       </c>
       <c r="L13" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="M13" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O13" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="P13" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="134">
-        <f t="shared" ref="Q13" si="2">SUM(Q7:Q10)</f>
+      <c r="Q13" s="129">
+        <f t="shared" ref="Q13" si="5">SUM(Q7:Q10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>366</v>
       </c>
@@ -12966,7 +12975,7 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C15" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B15, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -12990,7 +12999,7 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B16, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13011,7 +13020,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>362</v>
       </c>
@@ -13041,7 +13050,7 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C18" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B18, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13062,7 +13071,7 @@
       <c r="M18"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>367</v>
       </c>
@@ -13092,7 +13101,7 @@
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C20" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B20, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13113,7 +13122,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -13137,7 +13146,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C22" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B22, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13158,7 +13167,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>362</v>
       </c>
@@ -13185,7 +13194,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C24" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B24, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13209,7 +13218,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C25" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B25, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13230,7 +13239,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C26" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B26, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13251,7 +13260,7 @@
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>367</v>
       </c>
@@ -13278,7 +13287,7 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C28" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B28, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13302,7 +13311,7 @@
       <c r="M28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C29" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B29, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13323,7 +13332,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>369</v>
       </c>
@@ -13353,7 +13362,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C31" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B31, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13374,7 +13383,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C32" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B32, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13395,7 +13404,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>21</v>
       </c>
@@ -13419,7 +13428,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C34" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B34, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13440,7 +13449,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>370</v>
       </c>
@@ -13470,7 +13479,7 @@
       <c r="M35"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C36" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B36, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13491,7 +13500,7 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>371</v>
       </c>
@@ -13518,7 +13527,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C38" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B38, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13542,7 +13551,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C39" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B39, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13566,7 +13575,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C40" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B40, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13590,7 +13599,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C41" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B41, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13614,7 +13623,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C42" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B42, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13638,7 +13647,7 @@
       <c r="M42"/>
       <c r="N42"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C43" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B43, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13659,7 +13668,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>372</v>
       </c>
@@ -13689,7 +13698,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C45" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B45, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13710,7 +13719,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>373</v>
       </c>
@@ -13740,7 +13749,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C47" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B47, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13761,7 +13770,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>374</v>
       </c>
@@ -13791,7 +13800,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C49" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B49, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13812,7 +13821,7 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C50" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B50, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13833,7 +13842,7 @@
       <c r="M50"/>
       <c r="N50"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C51" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B51, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13854,7 +13863,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>22</v>
       </c>
@@ -13878,7 +13887,7 @@
       <c r="M52"/>
       <c r="N52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>375</v>
       </c>
@@ -13908,7 +13917,7 @@
       <c r="M53"/>
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C54" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B54, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13929,7 +13938,7 @@
       <c r="M54"/>
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>376</v>
       </c>
@@ -13959,7 +13968,7 @@
       <c r="M55"/>
       <c r="N55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C56" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B56, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -13980,7 +13989,7 @@
       <c r="M56"/>
       <c r="N56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>377</v>
       </c>
@@ -14010,7 +14019,7 @@
       <c r="M57"/>
       <c r="N57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C58" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B58, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14031,7 +14040,7 @@
       <c r="M58"/>
       <c r="N58"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>378</v>
       </c>
@@ -14061,7 +14070,7 @@
       <c r="M59"/>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="53" t="str">
@@ -14085,9 +14094,9 @@
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
-      <c r="Q60" s="138"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q60" s="133"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C61" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B61, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14108,7 +14117,7 @@
       <c r="M61"/>
       <c r="N61"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>23</v>
       </c>
@@ -14132,7 +14141,7 @@
       <c r="M62"/>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>383</v>
       </c>
@@ -14162,7 +14171,7 @@
       <c r="M63"/>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C64" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B64, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14183,22 +14192,22 @@
       <c r="M64"/>
       <c r="N64"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="66" t="s">
         <v>384</v>
       </c>
       <c r="B65" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="144" t="str">
+      <c r="C65" s="139" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B65, 'Weigh In List '!A:A, 0)),"")</f>
         <v>male</v>
       </c>
-      <c r="D65" s="144">
+      <c r="D65" s="139">
         <f>IFERROR(INDEX('Weigh In List '!B:B, MATCH($B65, 'Weigh In List '!$A:$A, 0)),"")</f>
         <v>69</v>
       </c>
-      <c r="E65" s="144" t="str">
+      <c r="E65" s="139" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B65,'Weigh In List '!A:A,0)),"")</f>
         <v>Warriors</v>
       </c>
@@ -14210,7 +14219,7 @@
       <c r="M65"/>
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C66" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B66, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14231,7 +14240,7 @@
       <c r="M66"/>
       <c r="N66"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>385</v>
       </c>
@@ -14261,7 +14270,7 @@
       <c r="M67"/>
       <c r="N67"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C68" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B68, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14282,7 +14291,7 @@
       <c r="M68"/>
       <c r="N68"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C69" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B69, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14303,7 +14312,7 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>24</v>
       </c>
@@ -14327,7 +14336,7 @@
       <c r="M70"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>380</v>
       </c>
@@ -14357,7 +14366,7 @@
       <c r="M71"/>
       <c r="N71"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C72" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B72, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14378,7 +14387,7 @@
       <c r="M72"/>
       <c r="N72"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>381</v>
       </c>
@@ -14408,7 +14417,7 @@
       <c r="M73"/>
       <c r="N73"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C74" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B74, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14429,7 +14438,7 @@
       <c r="M74"/>
       <c r="N74"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>382</v>
       </c>
@@ -14459,7 +14468,7 @@
       <c r="M75"/>
       <c r="N75"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C76" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B76, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14480,7 +14489,7 @@
       <c r="M76"/>
       <c r="N76"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C77" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B77, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14501,7 +14510,7 @@
       <c r="M77"/>
       <c r="N77"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C78" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B78, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14522,7 +14531,7 @@
       <c r="M78"/>
       <c r="N78"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>25</v>
       </c>
@@ -14546,7 +14555,7 @@
       <c r="M79"/>
       <c r="N79"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C80" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B80, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14567,7 +14576,7 @@
       <c r="M80"/>
       <c r="N80"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>381</v>
       </c>
@@ -14594,7 +14603,7 @@
       <c r="M81"/>
       <c r="N81"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C82" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B82, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14618,7 +14627,7 @@
       <c r="M82"/>
       <c r="N82"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C83" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B83, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14642,7 +14651,7 @@
       <c r="M83"/>
       <c r="N83"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C84" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B84, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14666,7 +14675,7 @@
       <c r="M84"/>
       <c r="N84"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C85" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B85, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14690,7 +14699,7 @@
       <c r="M85"/>
       <c r="N85"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C86" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B86, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14714,7 +14723,7 @@
       <c r="M86"/>
       <c r="N86"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C87" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B87, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14738,7 +14747,7 @@
       <c r="M87"/>
       <c r="N87"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C88" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B88, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14759,7 +14768,7 @@
       <c r="M88"/>
       <c r="N88"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>386</v>
       </c>
@@ -14786,7 +14795,7 @@
       <c r="M89"/>
       <c r="N89"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C90" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B90, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14810,7 +14819,7 @@
       <c r="M90"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C91" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B91, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14834,7 +14843,7 @@
       <c r="M91"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C92" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B92, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14858,7 +14867,7 @@
       <c r="M92"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C93" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B93, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14882,7 +14891,7 @@
       <c r="M93"/>
       <c r="N93"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C94" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B94, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14906,7 +14915,7 @@
       <c r="M94"/>
       <c r="N94"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C95" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B95, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14930,7 +14939,7 @@
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C96" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B96, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -14951,7 +14960,7 @@
       <c r="M96"/>
       <c r="N96"/>
     </row>
-    <row r="97" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>388</v>
       </c>
@@ -14979,9 +14988,9 @@
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
-      <c r="Q97" s="138"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q97" s="133"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C98" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B98, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15005,7 +15014,7 @@
       <c r="M98"/>
       <c r="N98"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C99" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B99, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15026,7 +15035,7 @@
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>387</v>
       </c>
@@ -15053,7 +15062,7 @@
       <c r="M100"/>
       <c r="N100"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C101" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B101, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15077,7 +15086,7 @@
       <c r="M101"/>
       <c r="N101"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C102" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B102, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15101,7 +15110,7 @@
       <c r="M102"/>
       <c r="N102"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C103" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B103, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15125,7 +15134,7 @@
       <c r="M103"/>
       <c r="N103"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C104" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B104, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15149,7 +15158,7 @@
       <c r="M104"/>
       <c r="N104"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C105" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B105, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15170,7 +15179,7 @@
       <c r="M105"/>
       <c r="N105"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>389</v>
       </c>
@@ -15197,7 +15206,7 @@
       <c r="M106"/>
       <c r="N106"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C107" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B107, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15221,7 +15230,7 @@
       <c r="M107"/>
       <c r="N107"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C108" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B108, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15245,7 +15254,7 @@
       <c r="M108"/>
       <c r="N108"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C109" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B109, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15266,7 +15275,7 @@
       <c r="M109"/>
       <c r="N109"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C110" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B110, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15287,7 +15296,7 @@
       <c r="M110"/>
       <c r="N110"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>390</v>
       </c>
@@ -15317,7 +15326,7 @@
       <c r="M111"/>
       <c r="N111"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C112" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B112, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15338,7 +15347,7 @@
       <c r="M112"/>
       <c r="N112"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>382</v>
       </c>
@@ -15368,7 +15377,7 @@
       <c r="M113"/>
       <c r="N113"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C114" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B114, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15389,7 +15398,7 @@
       <c r="M114"/>
       <c r="N114"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C115" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B115, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15410,7 +15419,7 @@
       <c r="M115"/>
       <c r="N115"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>9</v>
       </c>
@@ -15436,7 +15445,7 @@
       <c r="M116"/>
       <c r="N116"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>391</v>
       </c>
@@ -15464,7 +15473,7 @@
       <c r="M117"/>
       <c r="N117"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="53" t="str">
@@ -15490,7 +15499,7 @@
       <c r="M118"/>
       <c r="N118"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="53" t="str">
@@ -15514,7 +15523,7 @@
       <c r="M119"/>
       <c r="N119"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>392</v>
       </c>
@@ -15542,7 +15551,7 @@
       <c r="M120"/>
       <c r="N120"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="53" t="str">
@@ -15568,7 +15577,7 @@
       <c r="M121"/>
       <c r="N121"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="53" t="str">
@@ -15592,7 +15601,7 @@
       <c r="M122"/>
       <c r="N122"/>
     </row>
-    <row r="123" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>393</v>
       </c>
@@ -15622,9 +15631,9 @@
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
-      <c r="Q123" s="137"/>
-    </row>
-    <row r="124" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q123" s="132"/>
+    </row>
+    <row r="124" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C124" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B124, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15645,9 +15654,9 @@
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
-      <c r="Q124" s="137"/>
-    </row>
-    <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q124" s="132"/>
+    </row>
+    <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C125" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B125, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15668,9 +15677,9 @@
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
-      <c r="Q125" s="137"/>
-    </row>
-    <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q125" s="132"/>
+    </row>
+    <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C126" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B126, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15691,9 +15700,9 @@
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
-      <c r="Q126" s="137"/>
-    </row>
-    <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q126" s="132"/>
+    </row>
+    <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C127" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B127, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15714,9 +15723,9 @@
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
-      <c r="Q127" s="137"/>
-    </row>
-    <row r="128" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q127" s="132"/>
+    </row>
+    <row r="128" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C128" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!D:D, MATCH(B128, 'Weigh In List '!A:A, 0)),"")</f>
         <v/>
@@ -15737,9 +15746,9 @@
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
-      <c r="Q128" s="137"/>
-    </row>
-    <row r="129" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q128" s="132"/>
+    </row>
+    <row r="129" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="53" t="str">
@@ -15763,9 +15772,9 @@
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
-      <c r="Q129" s="137"/>
-    </row>
-    <row r="130" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q129" s="132"/>
+    </row>
+    <row r="130" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="53"/>
@@ -15783,9 +15792,9 @@
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
-      <c r="Q130" s="137"/>
-    </row>
-    <row r="131" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q130" s="132"/>
+    </row>
+    <row r="131" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="53"/>
@@ -15803,9 +15812,9 @@
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
-      <c r="Q131" s="137"/>
-    </row>
-    <row r="132" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q131" s="132"/>
+    </row>
+    <row r="132" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="53"/>
@@ -15823,9 +15832,9 @@
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
-      <c r="Q132" s="137"/>
-    </row>
-    <row r="133" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q132" s="132"/>
+    </row>
+    <row r="133" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="53"/>
@@ -15843,9 +15852,9 @@
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
-      <c r="Q133" s="137"/>
-    </row>
-    <row r="134" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q133" s="132"/>
+    </row>
+    <row r="134" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="53"/>
@@ -15863,9 +15872,9 @@
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
-      <c r="Q134" s="137"/>
-    </row>
-    <row r="135" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q134" s="132"/>
+    </row>
+    <row r="135" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="53"/>
@@ -15883,9 +15892,9 @@
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135"/>
-      <c r="Q135" s="137"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q135" s="132"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E136" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B136,'Weigh In List '!A:A,0)),"")</f>
         <v/>
@@ -15898,55 +15907,55 @@
       <c r="M136"/>
       <c r="N136"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E137" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B137,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E138" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B138,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E139" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B139,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E140" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B140,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E141" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B141,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E142" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B142,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E143" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B143,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E144" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B144,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E145" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B145,'Weigh In List '!A:A,0)),"")</f>
         <v/>
@@ -15960,7 +15969,7 @@
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
     </row>
-    <row r="146" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E146" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B146,'Weigh In List '!A:A,0)),"")</f>
         <v/>
@@ -15974,13 +15983,13 @@
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
     </row>
-    <row r="147" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E147" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B147,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E148" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B148,'Weigh In List '!A:A,0)),"")</f>
         <v/>
@@ -15994,7 +16003,7 @@
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
     </row>
-    <row r="149" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E149" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B149,'Weigh In List '!A:A,0)),"")</f>
         <v/>
@@ -16008,979 +16017,979 @@
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
     </row>
-    <row r="150" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E150" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B150,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E151" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B151,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E152" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B152,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E153" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B153,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E154" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B154,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E155" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B155,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E156" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B156,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E157" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B157,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E158" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B158,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E159" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B159,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E160" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B160,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E161" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B161,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E162" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B162,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E163" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B163,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E164" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B164,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E165" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B165,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E166" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B166,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E167" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B167,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E168" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B168,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E169" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B169,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B170,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B171,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B172,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B173,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E174" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B174,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E175" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B175,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E176" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B176,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E177" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B177,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E178" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B178,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E179" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B179,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E180" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B180,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B181,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B182,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B183,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B184,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B185,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B186,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E187" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B187,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E188" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B188,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E189" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B189,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E190" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B190,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E191" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B191,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E192" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B192,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E193" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B193,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E194" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B194,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E195" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B195,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E196" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B196,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E197" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B197,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E198" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B198,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E199" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B199,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E200" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B200,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E201" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B201,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E202" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B202,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E203" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B203,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E204" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B204,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E205" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B205,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E206" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B206,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E207" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B207,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E208" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B208,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E209" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B209,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E210" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B210,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E211" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B211,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E212" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B212,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E213" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B213,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E214" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B214,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E215" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B215,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E216" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B216,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E217" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B217,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E218" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B218,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E219" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B219,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E220" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B220,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E221" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B221,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E222" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B222,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E223" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B223,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E224" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B224,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E225" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B225,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E226" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B226,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E227" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B227,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E228" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B228,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E229" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B229,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E230" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B230,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E231" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B231,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E232" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B232,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E233" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B233,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E234" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B234,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E235" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B235,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E236" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B236,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E237" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B237,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E238" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B238,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E239" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B239,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E240" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B240,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E241" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B241,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E242" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B242,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E243" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B243,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E244" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B244,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E245" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B245,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E246" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B246,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E247" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B247,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E248" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B248,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E249" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B249,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E250" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B250,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E251" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B251,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E252" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B252,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E253" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B253,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E254" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B254,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E255" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B255,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E256" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B256,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E257" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B257,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E258" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B258,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E259" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B259,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E260" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B260,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E261" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B261,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E262" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B262,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E263" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B263,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E264" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B264,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E265" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B265,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E266" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B266,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E267" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B267,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E268" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B268,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E269" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B269,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E270" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B270,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E271" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B271,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E272" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B272,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E273" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B273,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E274" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B274,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E275" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B275,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E276" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B276,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E277" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B277,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E278" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B278,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E279" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B279,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E280" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B280,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E281" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B281,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E282" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B282,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E283" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B283,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E284" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B284,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E285" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B285,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E286" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B286,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E287" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B287,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E288" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B288,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E289" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B289,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E290" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B290,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E291" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B291,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E292" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B292,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E293" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B293,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E294" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B294,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E295" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B295,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E296" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B296,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E297" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B297,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E298" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B298,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E299" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B299,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E300" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B300,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E301" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B301,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E302" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B302,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E303" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B303,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E304" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B304,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E305" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B305,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E306" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B306,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E307" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B307,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E308" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B308,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E309" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B309,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E310" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B310,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E311" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B311,'Weigh In List '!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E312" s="53" t="str">
         <f>IFERROR(INDEX('Weigh In List '!F:F,MATCH('Medallists (New)'!B312,'Weigh In List '!A:A,0)),"")</f>
         <v/>
@@ -17012,47 +17021,47 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="78" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="78" customWidth="1"/>
     <col min="3" max="4" width="4.5" style="78" customWidth="1"/>
     <col min="5" max="5" width="24" style="50" customWidth="1"/>
     <col min="6" max="6" width="24" style="51" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="76"/>
-    <col min="8" max="9" width="10.83203125" style="6"/>
-    <col min="10" max="12" width="10.83203125" style="14"/>
-    <col min="13" max="13" width="23.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="76"/>
+    <col min="8" max="9" width="10.875" style="6"/>
+    <col min="10" max="12" width="10.875" style="14"/>
+    <col min="13" max="13" width="23.875" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="6"/>
+    <col min="15" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="152" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="145" t="s">
         <v>408</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="151"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="143"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="131"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="110" t="s">
         <v>11</v>
       </c>
@@ -17066,7 +17075,7 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>75</v>
       </c>
@@ -17094,7 +17103,7 @@
       <c r="L3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>75</v>
       </c>
@@ -17123,7 +17132,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>75</v>
       </c>
@@ -17146,7 +17155,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
         <v>77</v>
       </c>
@@ -17172,7 +17181,7 @@
       <c r="I6" s="14"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="1:15" s="77" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="77" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>77</v>
       </c>
@@ -17203,7 +17212,7 @@
       <c r="N7" s="21"/>
       <c r="O7" s="76"/>
     </row>
-    <row r="8" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
         <v>77</v>
       </c>
@@ -17227,7 +17236,7 @@
       </c>
       <c r="I8" s="70"/>
     </row>
-    <row r="9" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>265</v>
       </c>
@@ -17250,7 +17259,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="76" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="76" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
         <v>76</v>
       </c>
@@ -17273,7 +17282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
         <v>79</v>
       </c>
@@ -17295,30 +17304,30 @@
       <c r="G11" s="76"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:15" s="68" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="139" t="s">
+    <row r="12" spans="1:15" s="68" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="134">
         <v>1</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="141" t="s">
+      <c r="F12" s="136" t="s">
         <v>347</v>
       </c>
       <c r="G12" s="82">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
         <v>284</v>
       </c>
@@ -17339,7 +17348,7 @@
       </c>
       <c r="G13" s="76"/>
     </row>
-    <row r="14" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>75</v>
       </c>
@@ -17368,7 +17377,7 @@
       <c r="M14" s="76"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>75</v>
       </c>
@@ -17397,7 +17406,7 @@
       <c r="M15" s="76"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>75</v>
       </c>
@@ -17426,7 +17435,7 @@
       <c r="M16" s="4"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>77</v>
       </c>
@@ -17455,7 +17464,7 @@
       <c r="M17" s="4"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>77</v>
       </c>
@@ -17483,7 +17492,7 @@
       <c r="L18" s="76"/>
       <c r="M18" s="76"/>
     </row>
-    <row r="19" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
         <v>77</v>
       </c>
@@ -17512,7 +17521,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>265</v>
       </c>
@@ -17537,7 +17546,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>265</v>
       </c>
@@ -17567,7 +17576,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>76</v>
       </c>
@@ -17597,23 +17606,23 @@
       <c r="N22" s="14"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="139" t="s">
+    <row r="23" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="139">
+      <c r="D23" s="134">
         <v>21</v>
       </c>
-      <c r="E23" s="140" t="s">
+      <c r="E23" s="135" t="s">
         <v>256</v>
       </c>
-      <c r="F23" s="141" t="s">
+      <c r="F23" s="136" t="s">
         <v>257</v>
       </c>
       <c r="G23" s="76">
@@ -17627,7 +17636,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>75</v>
       </c>
@@ -17652,7 +17661,7 @@
       <c r="N24"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>75</v>
       </c>
@@ -17682,29 +17691,29 @@
       <c r="N25"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="147"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="148" t="s">
+    <row r="26" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="142"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="147" t="s">
         <v>408</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="151"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="76"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="133"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="110" t="s">
         <v>11</v>
       </c>
@@ -17715,7 +17724,7 @@
       <c r="N27"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>77</v>
       </c>
@@ -17745,7 +17754,7 @@
       <c r="N28"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>77</v>
       </c>
@@ -17770,7 +17779,7 @@
       <c r="I29"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>265</v>
       </c>
@@ -17800,7 +17809,7 @@
       <c r="N30"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>76</v>
       </c>
@@ -17825,7 +17834,7 @@
       <c r="I31"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>299</v>
       </c>
@@ -17853,7 +17862,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>75</v>
       </c>
@@ -17881,7 +17890,7 @@
       <c r="L33" s="4"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>75</v>
       </c>
@@ -17909,7 +17918,7 @@
       <c r="L34" s="14"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>77</v>
       </c>
@@ -17939,7 +17948,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>77</v>
       </c>
@@ -17969,7 +17978,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="77"/>
     </row>
-    <row r="37" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>265</v>
       </c>
@@ -17999,7 +18008,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
         <v>265</v>
       </c>
@@ -18029,7 +18038,7 @@
       <c r="N38"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>301</v>
       </c>
@@ -18057,7 +18066,7 @@
       <c r="N39"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
         <v>342</v>
       </c>
@@ -18085,7 +18094,7 @@
       <c r="N40"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>343</v>
       </c>
@@ -18106,7 +18115,7 @@
       </c>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
         <v>302</v>
       </c>
@@ -18134,7 +18143,7 @@
       <c r="N42"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
         <v>75</v>
       </c>
@@ -18164,7 +18173,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>77</v>
       </c>
@@ -18194,7 +18203,7 @@
       <c r="N44"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>265</v>
       </c>
@@ -18224,7 +18233,7 @@
       <c r="N45"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>302</v>
       </c>
@@ -18252,7 +18261,7 @@
       <c r="N46"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>303</v>
       </c>
@@ -18276,7 +18285,7 @@
       <c r="I47"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81"/>
       <c r="B48" s="81"/>
       <c r="C48" s="81" t="s">
@@ -18298,7 +18307,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
         <v>302</v>
       </c>
@@ -18317,7 +18326,7 @@
       </c>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="81" t="s">
         <v>303</v>
       </c>
@@ -18338,7 +18347,7 @@
       </c>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
         <v>302</v>
       </c>
@@ -18364,7 +18373,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I52" s="14"/>
     </row>
   </sheetData>
@@ -18383,37 +18392,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="48" customWidth="1"/>
     <col min="3" max="4" width="4.5" style="48" customWidth="1"/>
     <col min="5" max="5" width="24" style="50" customWidth="1"/>
     <col min="6" max="6" width="24" style="51" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="88"/>
-    <col min="8" max="9" width="10.83203125" style="6"/>
-    <col min="10" max="10" width="10.1640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="14"/>
-    <col min="12" max="12" width="23.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="14"/>
-    <col min="14" max="14" width="23.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="88"/>
+    <col min="8" max="9" width="10.875" style="6"/>
+    <col min="10" max="10" width="10.125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="14"/>
+    <col min="12" max="12" width="23.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="14"/>
+    <col min="14" max="14" width="23.875" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="6"/>
+    <col min="16" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="153" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="152" t="s">
         <v>408</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="151"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="143"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -18421,17 +18430,17 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="131"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="49" t="s">
         <v>11</v>
       </c>
@@ -18446,7 +18455,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>394</v>
       </c>
@@ -18473,7 +18482,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
         <v>315</v>
       </c>
@@ -18495,7 +18504,7 @@
       <c r="G4" s="90"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:19" s="76" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="76" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>262</v>
       </c>
@@ -18514,9 +18523,9 @@
       <c r="F5" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="143"/>
-    </row>
-    <row r="6" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="138"/>
+    </row>
+    <row r="6" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
         <v>303</v>
       </c>
@@ -18539,7 +18548,7 @@
       <c r="I6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>272</v>
       </c>
@@ -18563,7 +18572,7 @@
       </c>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
         <v>263</v>
       </c>
@@ -18592,7 +18601,7 @@
       <c r="O8" s="95"/>
       <c r="P8" s="94"/>
     </row>
-    <row r="9" spans="1:19" s="68" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="68" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>261</v>
       </c>
@@ -18620,7 +18629,7 @@
       <c r="P9" s="87"/>
       <c r="Q9" s="91"/>
     </row>
-    <row r="10" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80" t="s">
         <v>316</v>
       </c>
@@ -18642,7 +18651,7 @@
       <c r="G10" s="90"/>
       <c r="O10" s="70"/>
     </row>
-    <row r="11" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
         <v>395</v>
       </c>
@@ -18663,7 +18672,7 @@
       </c>
       <c r="G11" s="90"/>
     </row>
-    <row r="12" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="80" t="s">
         <v>396</v>
       </c>
@@ -18685,7 +18694,7 @@
       <c r="G12" s="90"/>
       <c r="O12" s="70"/>
     </row>
-    <row r="13" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="80" t="s">
         <v>397</v>
       </c>
@@ -18707,7 +18716,7 @@
       <c r="G13" s="90"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>398</v>
       </c>
@@ -18732,7 +18741,7 @@
       <c r="R14" s="68"/>
       <c r="S14" s="68"/>
     </row>
-    <row r="15" spans="1:19" s="76" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="76" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81"/>
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
@@ -18741,10 +18750,10 @@
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="143"/>
+      <c r="G15" s="138"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:19" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="80" t="s">
         <v>263</v>
       </c>
@@ -18769,7 +18778,7 @@
       <c r="H16" s="76"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
         <v>263</v>
       </c>
@@ -18800,7 +18809,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>400</v>
       </c>
@@ -18829,7 +18838,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:22" s="68" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="68" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>399</v>
       </c>
@@ -18862,7 +18871,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
     </row>
-    <row r="20" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>132</v>
       </c>
@@ -18891,7 +18900,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>132</v>
       </c>
@@ -18920,7 +18929,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>401</v>
       </c>
@@ -18949,7 +18958,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:22" s="76" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" s="76" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>313</v>
       </c>
@@ -18968,7 +18977,7 @@
       <c r="F23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="143"/>
+      <c r="G23" s="138"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -18977,7 +18986,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>263</v>
       </c>
@@ -19008,7 +19017,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80" t="s">
         <v>263</v>
       </c>
@@ -19039,15 +19048,15 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="147"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="153" t="s">
+    <row r="26" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="142"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="152" t="s">
         <v>408</v>
       </c>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="151"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="90"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -19057,17 +19066,17 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="131"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="49" t="s">
         <v>11</v>
       </c>
@@ -19083,7 +19092,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>403</v>
       </c>
@@ -19111,7 +19120,7 @@
       <c r="N28" s="70"/>
       <c r="O28" s="70"/>
     </row>
-    <row r="29" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
         <v>402</v>
       </c>
@@ -19139,7 +19148,7 @@
       <c r="N29" s="70"/>
       <c r="O29" s="70"/>
     </row>
-    <row r="30" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
         <v>404</v>
       </c>
@@ -19162,7 +19171,7 @@
       <c r="I30" s="6"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>399</v>
       </c>
@@ -19184,20 +19193,20 @@
       <c r="G31" s="90"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:22" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="145" t="s">
+    <row r="32" spans="1:22" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="140" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="145">
+      <c r="D32" s="140">
         <v>28</v>
       </c>
-      <c r="E32" s="146" t="s">
+      <c r="E32" s="141" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="33" t="s">
@@ -19205,7 +19214,7 @@
       </c>
       <c r="G32" s="90"/>
     </row>
-    <row r="33" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>263</v>
       </c>
@@ -19236,7 +19245,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80" t="s">
         <v>263</v>
       </c>
@@ -19263,7 +19272,7 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
-    <row r="35" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80" t="s">
         <v>405</v>
       </c>
@@ -19287,7 +19296,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
-    <row r="36" spans="1:31" s="76" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" s="76" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>403</v>
       </c>
@@ -19306,13 +19315,13 @@
       <c r="F36" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="142"/>
+      <c r="G36" s="137"/>
       <c r="P36" s="77"/>
       <c r="Q36" s="77"/>
       <c r="R36" s="77"/>
       <c r="S36" s="77"/>
     </row>
-    <row r="37" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80" t="s">
         <v>402</v>
       </c>
@@ -19342,7 +19351,7 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
     </row>
-    <row r="38" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80" t="s">
         <v>401</v>
       </c>
@@ -19367,7 +19376,7 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80" t="s">
         <v>132</v>
       </c>
@@ -19388,7 +19397,7 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="80" t="s">
         <v>263</v>
       </c>
@@ -19420,7 +19429,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80" t="s">
         <v>402</v>
       </c>
@@ -19448,7 +19457,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80" t="s">
         <v>312</v>
       </c>
@@ -19478,7 +19487,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="90"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -19490,7 +19499,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80" t="s">
         <v>314</v>
       </c>
@@ -19520,7 +19529,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80" t="s">
         <v>402</v>
       </c>
@@ -19550,7 +19559,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80" t="s">
         <v>132</v>
       </c>
@@ -19580,7 +19589,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>132</v>
       </c>
@@ -19608,7 +19617,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -19635,7 +19644,7 @@
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
     </row>
-    <row r="49" spans="1:31" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -19662,10 +19671,10 @@
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
     </row>
-    <row r="50" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G50" s="90"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G51" s="90"/>
     </row>
   </sheetData>
@@ -19688,26 +19697,26 @@
       <selection activeCell="A46" sqref="A46:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5" style="78" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="51" customWidth="1"/>
     <col min="4" max="4" width="8" style="78" customWidth="1"/>
     <col min="5" max="5" width="8" style="96" customWidth="1"/>
     <col min="6" max="6" width="8" style="99" customWidth="1"/>
     <col min="7" max="7" width="8" style="108" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="14"/>
-    <col min="9" max="9" width="23.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
-    <col min="11" max="11" width="23.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="14"/>
+    <col min="9" max="9" width="23.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="14"/>
+    <col min="11" max="11" width="23.875" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="6"/>
+    <col min="13" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="130"/>
-      <c r="B1" s="130"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
       <c r="G1" s="100"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -19715,7 +19724,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>335</v>
       </c>
@@ -19743,7 +19752,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80">
         <v>1</v>
       </c>
@@ -19759,7 +19768,7 @@
       <c r="G3" s="104"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80">
         <v>2</v>
       </c>
@@ -19779,7 +19788,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80">
         <v>3</v>
       </c>
@@ -19794,7 +19803,7 @@
       <c r="F5" s="104"/>
       <c r="G5" s="103"/>
     </row>
-    <row r="6" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80">
         <v>4</v>
       </c>
@@ -19809,7 +19818,7 @@
       <c r="F6" s="104"/>
       <c r="G6" s="104"/>
     </row>
-    <row r="7" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80">
         <v>5</v>
       </c>
@@ -19825,7 +19834,7 @@
       <c r="G7" s="104"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80">
         <v>6</v>
       </c>
@@ -19846,7 +19855,7 @@
       <c r="L8" s="95"/>
       <c r="M8" s="94"/>
     </row>
-    <row r="9" spans="1:16" s="68" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="68" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
         <v>7</v>
       </c>
@@ -19868,7 +19877,7 @@
       <c r="M9" s="87"/>
       <c r="N9" s="91"/>
     </row>
-    <row r="10" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80">
         <v>8</v>
       </c>
@@ -19884,7 +19893,7 @@
       <c r="G10" s="104"/>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80">
         <v>9</v>
       </c>
@@ -19899,7 +19908,7 @@
       <c r="F11" s="104"/>
       <c r="G11" s="104"/>
     </row>
-    <row r="12" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="80">
         <v>10</v>
       </c>
@@ -19915,7 +19924,7 @@
       <c r="G12" s="104"/>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="80">
         <v>11</v>
       </c>
@@ -19931,7 +19940,7 @@
       <c r="G13" s="104"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="80">
         <v>12</v>
       </c>
@@ -19950,7 +19959,7 @@
       <c r="O14" s="68"/>
       <c r="P14" s="68"/>
     </row>
-    <row r="15" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="80">
         <v>13</v>
       </c>
@@ -19965,7 +19974,7 @@
       <c r="F15" s="106"/>
       <c r="G15" s="107"/>
     </row>
-    <row r="16" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="80">
         <v>14</v>
       </c>
@@ -19980,7 +19989,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="104"/>
     </row>
-    <row r="17" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80">
         <v>15</v>
       </c>
@@ -20000,7 +20009,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80">
         <v>16</v>
       </c>
@@ -20020,7 +20029,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:16" s="68" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="68" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80">
         <v>17</v>
       </c>
@@ -20044,7 +20053,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80">
         <v>18</v>
       </c>
@@ -20064,7 +20073,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80">
         <v>19</v>
       </c>
@@ -20084,7 +20093,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80">
         <v>20</v>
       </c>
@@ -20104,7 +20113,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80">
         <v>21</v>
       </c>
@@ -20124,7 +20133,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80">
         <v>22</v>
       </c>
@@ -20144,7 +20153,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80">
         <v>23</v>
       </c>
@@ -20164,7 +20173,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80">
         <v>24</v>
       </c>
@@ -20180,7 +20189,7 @@
       <c r="K26" s="70"/>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80">
         <v>25</v>
       </c>
@@ -20200,7 +20209,7 @@
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80">
         <v>26</v>
       </c>
@@ -20215,7 +20224,7 @@
       <c r="F28" s="99"/>
       <c r="G28" s="103"/>
     </row>
-    <row r="29" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80">
         <v>27</v>
       </c>
@@ -20231,7 +20240,7 @@
       <c r="G29" s="104"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80">
         <v>28</v>
       </c>
@@ -20246,7 +20255,7 @@
       <c r="F30" s="104"/>
       <c r="G30" s="104"/>
     </row>
-    <row r="31" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80">
         <v>29</v>
       </c>
@@ -20267,7 +20276,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80">
         <v>30</v>
       </c>
@@ -20286,7 +20295,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80">
         <v>31</v>
       </c>
@@ -20305,7 +20314,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80">
         <v>32</v>
       </c>
@@ -20324,7 +20333,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80">
         <v>33</v>
       </c>
@@ -20346,7 +20355,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80">
         <v>34</v>
       </c>
@@ -20368,7 +20377,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80">
         <v>35</v>
       </c>
@@ -20387,7 +20396,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80">
         <v>36</v>
       </c>
@@ -20409,7 +20418,7 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80">
         <v>37</v>
       </c>
@@ -20431,7 +20440,7 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="80">
         <v>38</v>
       </c>
@@ -20453,7 +20462,7 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80">
         <v>39</v>
       </c>
@@ -20475,7 +20484,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80">
         <v>40</v>
       </c>
@@ -20497,7 +20506,7 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80">
         <v>41</v>
       </c>
@@ -20528,7 +20537,7 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
     </row>
-    <row r="44" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80">
         <v>42</v>
       </c>
@@ -20559,7 +20568,7 @@
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
     </row>
-    <row r="45" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80">
         <v>43</v>
       </c>
@@ -20570,7 +20579,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80">
         <v>44</v>
       </c>
@@ -20581,7 +20590,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="80">
         <v>45</v>
       </c>
@@ -20592,7 +20601,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="80">
         <v>46</v>
       </c>
@@ -20603,7 +20612,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="80">
         <v>47</v>
       </c>
@@ -20614,7 +20623,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="80">
         <v>48</v>
       </c>
@@ -20625,7 +20634,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="80">
         <v>49</v>
       </c>
@@ -20653,26 +20662,26 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5" style="78" customWidth="1"/>
     <col min="2" max="2" width="22" style="50" customWidth="1"/>
     <col min="3" max="3" width="22" style="51" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="78" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="96" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="99" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="108" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="14"/>
-    <col min="9" max="9" width="23.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
-    <col min="11" max="11" width="23.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="78" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="96" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="99" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="108" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="14"/>
+    <col min="9" max="9" width="23.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="14"/>
+    <col min="11" max="11" width="23.875" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="6"/>
+    <col min="13" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="130"/>
-      <c r="B1" s="130"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
       <c r="G1" s="100"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -20680,7 +20689,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>14</v>
       </c>
@@ -20708,7 +20717,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80">
         <v>1</v>
       </c>
@@ -20724,7 +20733,7 @@
       <c r="G3" s="104"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="80">
         <v>2</v>
       </c>
@@ -20744,7 +20753,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80">
         <v>3</v>
       </c>
@@ -20759,7 +20768,7 @@
       <c r="F5" s="104"/>
       <c r="G5" s="103"/>
     </row>
-    <row r="6" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80">
         <v>4</v>
       </c>
@@ -20774,7 +20783,7 @@
       <c r="F6" s="104"/>
       <c r="G6" s="104"/>
     </row>
-    <row r="7" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80">
         <v>5</v>
       </c>
@@ -20790,7 +20799,7 @@
       <c r="G7" s="104"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80">
         <v>6</v>
       </c>
@@ -20811,7 +20820,7 @@
       <c r="L8" s="95"/>
       <c r="M8" s="94"/>
     </row>
-    <row r="9" spans="1:16" s="68" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="68" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
         <v>7</v>
       </c>
@@ -20833,7 +20842,7 @@
       <c r="M9" s="87"/>
       <c r="N9" s="91"/>
     </row>
-    <row r="10" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80">
         <v>8</v>
       </c>
@@ -20849,7 +20858,7 @@
       <c r="G10" s="104"/>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80">
         <v>9</v>
       </c>
@@ -20864,7 +20873,7 @@
       <c r="F11" s="104"/>
       <c r="G11" s="104"/>
     </row>
-    <row r="12" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="80">
         <v>10</v>
       </c>
@@ -20880,7 +20889,7 @@
       <c r="G12" s="104"/>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="80">
         <v>11</v>
       </c>
@@ -20896,7 +20905,7 @@
       <c r="G13" s="104"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="80">
         <v>12</v>
       </c>
@@ -20915,7 +20924,7 @@
       <c r="O14" s="68"/>
       <c r="P14" s="68"/>
     </row>
-    <row r="15" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="80">
         <v>13</v>
       </c>
@@ -20930,7 +20939,7 @@
       <c r="F15" s="106"/>
       <c r="G15" s="107"/>
     </row>
-    <row r="16" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="80">
         <v>14</v>
       </c>
@@ -20945,7 +20954,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="104"/>
     </row>
-    <row r="17" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80">
         <v>15</v>
       </c>
@@ -20965,7 +20974,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80">
         <v>16</v>
       </c>
@@ -20985,7 +20994,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:16" s="68" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="68" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80">
         <v>17</v>
       </c>
@@ -21009,7 +21018,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80">
         <v>18</v>
       </c>
@@ -21029,7 +21038,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80">
         <v>19</v>
       </c>
@@ -21049,7 +21058,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80">
         <v>20</v>
       </c>
@@ -21069,7 +21078,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80">
         <v>21</v>
       </c>
@@ -21089,7 +21098,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80">
         <v>22</v>
       </c>
@@ -21109,7 +21118,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80">
         <v>23</v>
       </c>
@@ -21129,7 +21138,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="32"/>
       <c r="C26" s="51"/>
@@ -21143,7 +21152,7 @@
       <c r="K26" s="70"/>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="84" t="s">
         <v>11</v>
@@ -21161,7 +21170,7 @@
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80">
         <v>24</v>
       </c>
@@ -21176,7 +21185,7 @@
       <c r="F28" s="99"/>
       <c r="G28" s="103"/>
     </row>
-    <row r="29" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80">
         <v>25</v>
       </c>
@@ -21192,7 +21201,7 @@
       <c r="G29" s="104"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80">
         <v>26</v>
       </c>
@@ -21207,7 +21216,7 @@
       <c r="F30" s="104"/>
       <c r="G30" s="104"/>
     </row>
-    <row r="31" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80">
         <v>27</v>
       </c>
@@ -21228,7 +21237,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:16" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80">
         <v>28</v>
       </c>
@@ -21247,7 +21256,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80">
         <v>29</v>
       </c>
@@ -21266,7 +21275,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80">
         <v>30</v>
       </c>
@@ -21285,7 +21294,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80">
         <v>31</v>
       </c>
@@ -21307,7 +21316,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80">
         <v>32</v>
       </c>
@@ -21329,7 +21338,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80">
         <v>33</v>
       </c>
@@ -21348,7 +21357,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80">
         <v>34</v>
       </c>
@@ -21370,7 +21379,7 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80">
         <v>35</v>
       </c>
@@ -21390,7 +21399,7 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="80">
         <v>36</v>
       </c>
@@ -21412,7 +21421,7 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80">
         <v>37</v>
       </c>
@@ -21434,7 +21443,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80">
         <v>38</v>
       </c>
@@ -21456,7 +21465,7 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80">
         <v>39</v>
       </c>
@@ -21487,7 +21496,7 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
     </row>
-    <row r="44" spans="1:28" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="31" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80">
         <v>40</v>
       </c>
@@ -21518,7 +21527,7 @@
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
     </row>
-    <row r="45" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80">
         <v>41</v>
       </c>
@@ -21529,7 +21538,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="80">
         <v>42</v>
       </c>
@@ -21540,7 +21549,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="80">
         <v>43</v>
       </c>
